--- a/contratos/contratos-7-2019.xlsx
+++ b/contratos/contratos-7-2019.xlsx
@@ -985,7 +985,7 @@
     <t>LOPEZ RICARDO FABIAN</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OBRELECTRIC S.R.L.</t>
@@ -1057,7 +1057,7 @@
     <t>UGON VICTOR FRANCO ALI</t>
   </si>
   <si>
-    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA, BONASEGLA LUCIANA Y BONASEGLA SILVIO.</t>
+    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA. BONASEGLA LUCIANA Y BONASEGLA SILVIO</t>
   </si>
   <si>
     <t>VALDUNCIEL RODOLFO RENE</t>
@@ -1348,10 +1348,10 @@
     <t>SANCHEZ SUSANA BEATRIZ FRANCISCA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
-  </si>
-  <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
+  </si>
+  <si>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ALMARA ROBERTO ALMILCAR</t>
@@ -1942,793 +1942,793 @@
     <t>106</t>
   </si>
   <si>
-    <t>122.400,00</t>
-  </si>
-  <si>
-    <t>19.200,00</t>
-  </si>
-  <si>
-    <t>5.100,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>46.835,00</t>
-  </si>
-  <si>
-    <t>47.949,92</t>
-  </si>
-  <si>
-    <t>316.000,00</t>
-  </si>
-  <si>
-    <t>772.000,00</t>
-  </si>
-  <si>
-    <t>3.999,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>3.560,00</t>
-  </si>
-  <si>
-    <t>1.759,00</t>
-  </si>
-  <si>
-    <t>10.350,00</t>
-  </si>
-  <si>
-    <t>709.500,00</t>
-  </si>
-  <si>
-    <t>1.116,41</t>
-  </si>
-  <si>
-    <t>796.250,00</t>
-  </si>
-  <si>
-    <t>654.561,60</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>605.000,00</t>
-  </si>
-  <si>
-    <t>3.151,00</t>
-  </si>
-  <si>
-    <t>1.607.409,56</t>
-  </si>
-  <si>
-    <t>1.331.915,13</t>
-  </si>
-  <si>
-    <t>57.698,40</t>
-  </si>
-  <si>
-    <t>18.770,50</t>
-  </si>
-  <si>
-    <t>47.458,52</t>
-  </si>
-  <si>
-    <t>2.730,00</t>
-  </si>
-  <si>
-    <t>1.376.334,73</t>
-  </si>
-  <si>
-    <t>299.833,01</t>
-  </si>
-  <si>
-    <t>119.423,00</t>
-  </si>
-  <si>
-    <t>15.840,00</t>
-  </si>
-  <si>
-    <t>3.449,39</t>
-  </si>
-  <si>
-    <t>91.043,74</t>
-  </si>
-  <si>
-    <t>11.752,00</t>
-  </si>
-  <si>
-    <t>833,46</t>
-  </si>
-  <si>
-    <t>104.414,23</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>22.290,00</t>
-  </si>
-  <si>
-    <t>10.900,00</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>160.480,00</t>
-  </si>
-  <si>
-    <t>939,38</t>
-  </si>
-  <si>
-    <t>11.540,00</t>
-  </si>
-  <si>
-    <t>443.228,20</t>
-  </si>
-  <si>
-    <t>39.348,81</t>
-  </si>
-  <si>
-    <t>466.688,17</t>
-  </si>
-  <si>
-    <t>99.645,00</t>
-  </si>
-  <si>
-    <t>82.099,71</t>
-  </si>
-  <si>
-    <t>115.000,00</t>
-  </si>
-  <si>
-    <t>21.570,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.260,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>852.322,00</t>
-  </si>
-  <si>
-    <t>314.650,00</t>
-  </si>
-  <si>
-    <t>83.945,00</t>
-  </si>
-  <si>
-    <t>40.060,00</t>
-  </si>
-  <si>
-    <t>1.576,60</t>
-  </si>
-  <si>
-    <t>67.670,00</t>
-  </si>
-  <si>
-    <t>1.899,99</t>
-  </si>
-  <si>
-    <t>4.990,00</t>
-  </si>
-  <si>
-    <t>295.279,89</t>
-  </si>
-  <si>
-    <t>192.537,66</t>
-  </si>
-  <si>
-    <t>19.803,70</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>685,83</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>10.412,50</t>
-  </si>
-  <si>
-    <t>12.166,88</t>
-  </si>
-  <si>
-    <t>6.467,40</t>
-  </si>
-  <si>
-    <t>15.941,84</t>
-  </si>
-  <si>
-    <t>57,38</t>
-  </si>
-  <si>
-    <t>7.014,00</t>
-  </si>
-  <si>
-    <t>23.260,00</t>
-  </si>
-  <si>
-    <t>48.523,19</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>17.181,96</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.317,99</t>
-  </si>
-  <si>
-    <t>232.450,69</t>
-  </si>
-  <si>
-    <t>20.448,63</t>
-  </si>
-  <si>
-    <t>18.720,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>349.650,00</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>96.000,00</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>6.825,00</t>
-  </si>
-  <si>
-    <t>20.350,00</t>
-  </si>
-  <si>
-    <t>43.800,00</t>
-  </si>
-  <si>
-    <t>14.334,00</t>
-  </si>
-  <si>
-    <t>904,12</t>
-  </si>
-  <si>
-    <t>10.890,07</t>
-  </si>
-  <si>
-    <t>2.532,00</t>
-  </si>
-  <si>
-    <t>471,86</t>
-  </si>
-  <si>
-    <t>1.070,00</t>
-  </si>
-  <si>
-    <t>21.800,00</t>
-  </si>
-  <si>
-    <t>45.417,40</t>
-  </si>
-  <si>
-    <t>3.470,00</t>
-  </si>
-  <si>
-    <t>58.798,88</t>
-  </si>
-  <si>
-    <t>406,90</t>
-  </si>
-  <si>
-    <t>4.130,00</t>
-  </si>
-  <si>
-    <t>220.255,00</t>
-  </si>
-  <si>
-    <t>10.560,00</t>
-  </si>
-  <si>
-    <t>40.700,00</t>
-  </si>
-  <si>
-    <t>129.180,00</t>
-  </si>
-  <si>
-    <t>21.026,04</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>6.335,00</t>
-  </si>
-  <si>
-    <t>19.650,34</t>
-  </si>
-  <si>
-    <t>500,78</t>
-  </si>
-  <si>
-    <t>40.192,98</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>148.304,00</t>
-  </si>
-  <si>
-    <t>5.999,00</t>
-  </si>
-  <si>
-    <t>755,00</t>
-  </si>
-  <si>
-    <t>16.100,00</t>
-  </si>
-  <si>
-    <t>499,00</t>
-  </si>
-  <si>
-    <t>5.669,89</t>
-  </si>
-  <si>
-    <t>1.020,00</t>
-  </si>
-  <si>
-    <t>5.235,76</t>
-  </si>
-  <si>
-    <t>4.972,00</t>
-  </si>
-  <si>
-    <t>13.226,00</t>
-  </si>
-  <si>
-    <t>11.478,19</t>
-  </si>
-  <si>
-    <t>32.416,08</t>
-  </si>
-  <si>
-    <t>8.407,20</t>
-  </si>
-  <si>
-    <t>2.588,00</t>
-  </si>
-  <si>
-    <t>12.930,00</t>
-  </si>
-  <si>
-    <t>638,80</t>
-  </si>
-  <si>
-    <t>2.690,00</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>3.027,00</t>
-  </si>
-  <si>
-    <t>13.655,00</t>
-  </si>
-  <si>
-    <t>193,12</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>2.993,40</t>
-  </si>
-  <si>
-    <t>5.070,00</t>
-  </si>
-  <si>
-    <t>6.750,00</t>
-  </si>
-  <si>
-    <t>10.720,00</t>
-  </si>
-  <si>
-    <t>31.000,00</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>23.238,00</t>
-  </si>
-  <si>
-    <t>32.768,40</t>
-  </si>
-  <si>
-    <t>9.030,00</t>
-  </si>
-  <si>
-    <t>13.690,00</t>
-  </si>
-  <si>
-    <t>59.146,52</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>58.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>138.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>21.009,57</t>
-  </si>
-  <si>
-    <t>7.780,08</t>
-  </si>
-  <si>
-    <t>47.544,99</t>
-  </si>
-  <si>
-    <t>8.610,00</t>
-  </si>
-  <si>
-    <t>10.390,00</t>
-  </si>
-  <si>
-    <t>20.726,85</t>
-  </si>
-  <si>
-    <t>2.744.400,00</t>
-  </si>
-  <si>
-    <t>70.925,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>188.166,11</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>25.300,00</t>
-  </si>
-  <si>
-    <t>82.600,00</t>
-  </si>
-  <si>
-    <t>82.960,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>46.730,00</t>
-  </si>
-  <si>
-    <t>290,84</t>
-  </si>
-  <si>
-    <t>10.610,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>362,00</t>
-  </si>
-  <si>
-    <t>32.600,00</t>
-  </si>
-  <si>
-    <t>43.765,00</t>
-  </si>
-  <si>
-    <t>9.546,62</t>
-  </si>
-  <si>
-    <t>29,30</t>
-  </si>
-  <si>
-    <t>106.800,00</t>
-  </si>
-  <si>
-    <t>2.380,00</t>
-  </si>
-  <si>
-    <t>4.465,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>16.800,44</t>
-  </si>
-  <si>
-    <t>16.905,45</t>
-  </si>
-  <si>
-    <t>16.404,00</t>
-  </si>
-  <si>
-    <t>4.382,82</t>
-  </si>
-  <si>
-    <t>44.450,00</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>3.040,00</t>
-  </si>
-  <si>
-    <t>3.660,19</t>
-  </si>
-  <si>
-    <t>7.071,00</t>
-  </si>
-  <si>
-    <t>1.214,52</t>
-  </si>
-  <si>
-    <t>1.054,00</t>
-  </si>
-  <si>
-    <t>76.160,00</t>
-  </si>
-  <si>
-    <t>16.058,00</t>
-  </si>
-  <si>
-    <t>927,30</t>
-  </si>
-  <si>
-    <t>15.940,00</t>
-  </si>
-  <si>
-    <t>12.753,75</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>7.281.492,38</t>
-  </si>
-  <si>
-    <t>1.838.080,00</t>
-  </si>
-  <si>
-    <t>48.120,00</t>
-  </si>
-  <si>
-    <t>9.693.700,00</t>
-  </si>
-  <si>
-    <t>92.389,78</t>
-  </si>
-  <si>
-    <t>250.000,00</t>
-  </si>
-  <si>
-    <t>282.300,00</t>
-  </si>
-  <si>
-    <t>253.000,00</t>
-  </si>
-  <si>
-    <t>258.800,00</t>
-  </si>
-  <si>
-    <t>251.600,00</t>
-  </si>
-  <si>
-    <t>480.350,00</t>
-  </si>
-  <si>
-    <t>603.450,00</t>
-  </si>
-  <si>
-    <t>561.000,00</t>
-  </si>
-  <si>
-    <t>331.900,00</t>
-  </si>
-  <si>
-    <t>500.000,00</t>
-  </si>
-  <si>
-    <t>398.000,00</t>
-  </si>
-  <si>
-    <t>493.200,00</t>
-  </si>
-  <si>
-    <t>714.300,00</t>
-  </si>
-  <si>
-    <t>470.000,00</t>
-  </si>
-  <si>
-    <t>714.900,00</t>
-  </si>
-  <si>
-    <t>257.750,00</t>
-  </si>
-  <si>
-    <t>14.500,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>5.203.738,70</t>
-  </si>
-  <si>
-    <t>2.843.700,56</t>
-  </si>
-  <si>
-    <t>1.156,17</t>
-  </si>
-  <si>
-    <t>56.200,00</t>
-  </si>
-  <si>
-    <t>112.200,00</t>
-  </si>
-  <si>
-    <t>186.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>990.000,00</t>
-  </si>
-  <si>
-    <t>24.880,00</t>
-  </si>
-  <si>
-    <t>58.400,00</t>
-  </si>
-  <si>
-    <t>98.000,00</t>
-  </si>
-  <si>
-    <t>133.450,00</t>
-  </si>
-  <si>
-    <t>343.500,00</t>
-  </si>
-  <si>
-    <t>6.676,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>14.700,00</t>
-  </si>
-  <si>
-    <t>28.696,00</t>
+    <t>122400.00</t>
+  </si>
+  <si>
+    <t>19200.00</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>46835.00</t>
+  </si>
+  <si>
+    <t>47949.92</t>
+  </si>
+  <si>
+    <t>316000.00</t>
+  </si>
+  <si>
+    <t>772000.00</t>
+  </si>
+  <si>
+    <t>3999.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>3560.00</t>
+  </si>
+  <si>
+    <t>1759.00</t>
+  </si>
+  <si>
+    <t>10350.00</t>
+  </si>
+  <si>
+    <t>709500.00</t>
+  </si>
+  <si>
+    <t>1116.41</t>
+  </si>
+  <si>
+    <t>796250.00</t>
+  </si>
+  <si>
+    <t>654561.60</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>605000.00</t>
+  </si>
+  <si>
+    <t>3151.00</t>
+  </si>
+  <si>
+    <t>1607409.56</t>
+  </si>
+  <si>
+    <t>1331915.13</t>
+  </si>
+  <si>
+    <t>57698.40</t>
+  </si>
+  <si>
+    <t>18770.50</t>
+  </si>
+  <si>
+    <t>47458.52</t>
+  </si>
+  <si>
+    <t>2730.00</t>
+  </si>
+  <si>
+    <t>1376334.73</t>
+  </si>
+  <si>
+    <t>299833.01</t>
+  </si>
+  <si>
+    <t>119423.00</t>
+  </si>
+  <si>
+    <t>15840.00</t>
+  </si>
+  <si>
+    <t>3449.39</t>
+  </si>
+  <si>
+    <t>91043.74</t>
+  </si>
+  <si>
+    <t>11752.00</t>
+  </si>
+  <si>
+    <t>833.46</t>
+  </si>
+  <si>
+    <t>104414.23</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>22290.00</t>
+  </si>
+  <si>
+    <t>10900.00</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>160480.00</t>
+  </si>
+  <si>
+    <t>939.38</t>
+  </si>
+  <si>
+    <t>11540.00</t>
+  </si>
+  <si>
+    <t>443228.20</t>
+  </si>
+  <si>
+    <t>39348.81</t>
+  </si>
+  <si>
+    <t>466688.17</t>
+  </si>
+  <si>
+    <t>99645.00</t>
+  </si>
+  <si>
+    <t>82099.71</t>
+  </si>
+  <si>
+    <t>115000.00</t>
+  </si>
+  <si>
+    <t>21570.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2260.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>852322.00</t>
+  </si>
+  <si>
+    <t>314650.00</t>
+  </si>
+  <si>
+    <t>83945.00</t>
+  </si>
+  <si>
+    <t>40060.00</t>
+  </si>
+  <si>
+    <t>1576.60</t>
+  </si>
+  <si>
+    <t>67670.00</t>
+  </si>
+  <si>
+    <t>1899.99</t>
+  </si>
+  <si>
+    <t>4990.00</t>
+  </si>
+  <si>
+    <t>295279.89</t>
+  </si>
+  <si>
+    <t>192537.66</t>
+  </si>
+  <si>
+    <t>19803.70</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>685.83</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>10412.50</t>
+  </si>
+  <si>
+    <t>12166.88</t>
+  </si>
+  <si>
+    <t>6467.40</t>
+  </si>
+  <si>
+    <t>15941.84</t>
+  </si>
+  <si>
+    <t>57.38</t>
+  </si>
+  <si>
+    <t>7014.00</t>
+  </si>
+  <si>
+    <t>23260.00</t>
+  </si>
+  <si>
+    <t>48523.19</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>17181.96</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1317.99</t>
+  </si>
+  <si>
+    <t>232450.69</t>
+  </si>
+  <si>
+    <t>20448.63</t>
+  </si>
+  <si>
+    <t>18720.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>349650.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>96000.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>6825.00</t>
+  </si>
+  <si>
+    <t>20350.00</t>
+  </si>
+  <si>
+    <t>43800.00</t>
+  </si>
+  <si>
+    <t>14334.00</t>
+  </si>
+  <si>
+    <t>904.12</t>
+  </si>
+  <si>
+    <t>10890.07</t>
+  </si>
+  <si>
+    <t>2532.00</t>
+  </si>
+  <si>
+    <t>471.86</t>
+  </si>
+  <si>
+    <t>1070.00</t>
+  </si>
+  <si>
+    <t>21800.00</t>
+  </si>
+  <si>
+    <t>45417.40</t>
+  </si>
+  <si>
+    <t>3470.00</t>
+  </si>
+  <si>
+    <t>58798.88</t>
+  </si>
+  <si>
+    <t>406.90</t>
+  </si>
+  <si>
+    <t>4130.00</t>
+  </si>
+  <si>
+    <t>220255.00</t>
+  </si>
+  <si>
+    <t>10560.00</t>
+  </si>
+  <si>
+    <t>40700.00</t>
+  </si>
+  <si>
+    <t>129180.00</t>
+  </si>
+  <si>
+    <t>21026.04</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>6335.00</t>
+  </si>
+  <si>
+    <t>19650.34</t>
+  </si>
+  <si>
+    <t>500.78</t>
+  </si>
+  <si>
+    <t>40192.98</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>148304.00</t>
+  </si>
+  <si>
+    <t>5999.00</t>
+  </si>
+  <si>
+    <t>755.00</t>
+  </si>
+  <si>
+    <t>16100.00</t>
+  </si>
+  <si>
+    <t>499.00</t>
+  </si>
+  <si>
+    <t>5669.89</t>
+  </si>
+  <si>
+    <t>1020.00</t>
+  </si>
+  <si>
+    <t>5235.76</t>
+  </si>
+  <si>
+    <t>4972.00</t>
+  </si>
+  <si>
+    <t>13226.00</t>
+  </si>
+  <si>
+    <t>11478.19</t>
+  </si>
+  <si>
+    <t>32416.08</t>
+  </si>
+  <si>
+    <t>8407.20</t>
+  </si>
+  <si>
+    <t>2588.00</t>
+  </si>
+  <si>
+    <t>12930.00</t>
+  </si>
+  <si>
+    <t>638.80</t>
+  </si>
+  <si>
+    <t>2690.00</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>3027.00</t>
+  </si>
+  <si>
+    <t>13655.00</t>
+  </si>
+  <si>
+    <t>193.12</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>2993.40</t>
+  </si>
+  <si>
+    <t>5070.00</t>
+  </si>
+  <si>
+    <t>6750.00</t>
+  </si>
+  <si>
+    <t>10720.00</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>23238.00</t>
+  </si>
+  <si>
+    <t>32768.40</t>
+  </si>
+  <si>
+    <t>9030.00</t>
+  </si>
+  <si>
+    <t>13690.00</t>
+  </si>
+  <si>
+    <t>59146.52</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>58000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>138000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>21009.57</t>
+  </si>
+  <si>
+    <t>7780.08</t>
+  </si>
+  <si>
+    <t>47544.99</t>
+  </si>
+  <si>
+    <t>8610.00</t>
+  </si>
+  <si>
+    <t>10390.00</t>
+  </si>
+  <si>
+    <t>20726.85</t>
+  </si>
+  <si>
+    <t>2744400.00</t>
+  </si>
+  <si>
+    <t>70925.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>188166.11</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>25300.00</t>
+  </si>
+  <si>
+    <t>82600.00</t>
+  </si>
+  <si>
+    <t>82960.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>46730.00</t>
+  </si>
+  <si>
+    <t>290.84</t>
+  </si>
+  <si>
+    <t>10610.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>362.00</t>
+  </si>
+  <si>
+    <t>32600.00</t>
+  </si>
+  <si>
+    <t>43765.00</t>
+  </si>
+  <si>
+    <t>9546.62</t>
+  </si>
+  <si>
+    <t>29.30</t>
+  </si>
+  <si>
+    <t>106800.00</t>
+  </si>
+  <si>
+    <t>2380.00</t>
+  </si>
+  <si>
+    <t>4465.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>16800.44</t>
+  </si>
+  <si>
+    <t>16905.45</t>
+  </si>
+  <si>
+    <t>16404.00</t>
+  </si>
+  <si>
+    <t>4382.82</t>
+  </si>
+  <si>
+    <t>44450.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>3040.00</t>
+  </si>
+  <si>
+    <t>3660.19</t>
+  </si>
+  <si>
+    <t>7071.00</t>
+  </si>
+  <si>
+    <t>1214.52</t>
+  </si>
+  <si>
+    <t>1054.00</t>
+  </si>
+  <si>
+    <t>76160.00</t>
+  </si>
+  <si>
+    <t>16058.00</t>
+  </si>
+  <si>
+    <t>927.30</t>
+  </si>
+  <si>
+    <t>15940.00</t>
+  </si>
+  <si>
+    <t>12753.75</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>7281492.38</t>
+  </si>
+  <si>
+    <t>1838080.00</t>
+  </si>
+  <si>
+    <t>48120.00</t>
+  </si>
+  <si>
+    <t>9693700.00</t>
+  </si>
+  <si>
+    <t>92389.78</t>
+  </si>
+  <si>
+    <t>250000.00</t>
+  </si>
+  <si>
+    <t>282300.00</t>
+  </si>
+  <si>
+    <t>253000.00</t>
+  </si>
+  <si>
+    <t>258800.00</t>
+  </si>
+  <si>
+    <t>251600.00</t>
+  </si>
+  <si>
+    <t>480350.00</t>
+  </si>
+  <si>
+    <t>603450.00</t>
+  </si>
+  <si>
+    <t>561000.00</t>
+  </si>
+  <si>
+    <t>331900.00</t>
+  </si>
+  <si>
+    <t>500000.00</t>
+  </si>
+  <si>
+    <t>398000.00</t>
+  </si>
+  <si>
+    <t>493200.00</t>
+  </si>
+  <si>
+    <t>714300.00</t>
+  </si>
+  <si>
+    <t>470000.00</t>
+  </si>
+  <si>
+    <t>714900.00</t>
+  </si>
+  <si>
+    <t>257750.00</t>
+  </si>
+  <si>
+    <t>14500.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>5203738.70</t>
+  </si>
+  <si>
+    <t>2843700.56</t>
+  </si>
+  <si>
+    <t>1156.17</t>
+  </si>
+  <si>
+    <t>56200.00</t>
+  </si>
+  <si>
+    <t>112200.00</t>
+  </si>
+  <si>
+    <t>186000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>990000.00</t>
+  </si>
+  <si>
+    <t>24880.00</t>
+  </si>
+  <si>
+    <t>58400.00</t>
+  </si>
+  <si>
+    <t>98000.00</t>
+  </si>
+  <si>
+    <t>133450.00</t>
+  </si>
+  <si>
+    <t>343500.00</t>
+  </si>
+  <si>
+    <t>6676.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>14700.00</t>
+  </si>
+  <si>
+    <t>28696.00</t>
   </si>
 </sst>
 </file>
